--- a/contactos.xlsx
+++ b/contactos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>ClaveCliente</t>
   </si>
@@ -50,18 +50,18 @@
     <t>ana.garcia@gmail.com</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Carlos Roberto López</t>
+  </si>
+  <si>
+    <t>carlos_lopez@yahoo.com</t>
+  </si>
+  <si>
     <t>5551234561</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>Carlos Roberto López</t>
-  </si>
-  <si>
-    <t>carlos_lopez@yahoo.com</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
@@ -180,18 +180,6 @@
   </si>
   <si>
     <t>5552345670</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>Valentina Castillo</t>
-  </si>
-  <si>
-    <t>vale.castillo@outlook.com</t>
-  </si>
-  <si>
-    <t>555890123O</t>
   </si>
   <si>
     <t>1014</t>
@@ -1523,13 +1511,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="12.8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1555,22 +1546,22 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>55512345611</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1839,22 +1830,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>